--- a/Ilagan-System-Database-Design.xlsx
+++ b/Ilagan-System-Database-Design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="216">
   <si>
     <t>Users</t>
   </si>
@@ -487,9 +487,6 @@
     <t>ReservedBy</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>Foreign key to Chapel Table</t>
   </si>
   <si>
@@ -632,6 +629,81 @@
   </si>
   <si>
     <t>NarrativeID</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeID </t>
+  </si>
+  <si>
+    <t>IncidentDate</t>
+  </si>
+  <si>
+    <t>ReportedDate</t>
+  </si>
+  <si>
+    <t>ReportedTo</t>
+  </si>
+  <si>
+    <t>IncidentType</t>
+  </si>
+  <si>
+    <t>value: damage, loss, theft</t>
+  </si>
+  <si>
+    <t>EquipmentLocation</t>
+  </si>
+  <si>
+    <t>Person the incident was reported to</t>
+  </si>
+  <si>
+    <t>Location at the time of damage/loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncidentDescription </t>
+  </si>
+  <si>
+    <t>Reported by</t>
+  </si>
+  <si>
+    <t>IncedentType</t>
+  </si>
+  <si>
+    <t>Incident Information</t>
+  </si>
+  <si>
+    <t>Incident Date</t>
+  </si>
+  <si>
+    <t>Reported on</t>
+  </si>
+  <si>
+    <t>Reported to</t>
+  </si>
+  <si>
+    <t>Equipment Information</t>
+  </si>
+  <si>
+    <t>List of Equipment Damaged,lost,stolen</t>
+  </si>
+  <si>
+    <t>Equipment location at time of incident</t>
+  </si>
+  <si>
+    <t>how was the equipment damaged, loss, stolen</t>
+  </si>
+  <si>
+    <t>date &amp; time of incident</t>
+  </si>
+  <si>
+    <t>Servcie Request History</t>
+  </si>
+  <si>
+    <t>Status of the service request (ongoing, completed)</t>
+  </si>
+  <si>
+    <t>ItemID</t>
   </si>
 </sst>
 </file>
@@ -751,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,9 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,6 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,9 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69"/>
+    <sheetView tabSelected="1" topLeftCell="R71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,19 +1204,23 @@
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" customWidth="1"/>
+    <col min="16" max="16" width="99.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" customWidth="1"/>
     <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" customWidth="1"/>
+    <col min="22" max="22" width="35.28515625" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" customWidth="1"/>
+    <col min="25" max="25" width="20" customWidth="1"/>
+    <col min="26" max="26" width="34.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="12" t="s">
         <v>96</v>
       </c>
@@ -1151,38 +1228,21 @@
         <v>97</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1207,33 +1267,29 @@
       <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>49</v>
+      <c r="R2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="29"/>
+      <c r="T2" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="U2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75">
-      <c r="A3" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75">
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1255,28 +1311,33 @@
       <c r="J3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>25</v>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="27"/>
+        <v>102</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="30"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1289,36 +1350,35 @@
       <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>163</v>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="U4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="27"/>
+        <v>128</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="30"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1328,36 +1388,36 @@
       <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>163</v>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
       </c>
       <c r="U5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:28">
+      <c r="A6" s="30"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1367,36 +1427,36 @@
       <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>163</v>
+      <c r="R6" s="13"/>
+      <c r="S6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
       </c>
       <c r="U6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:28">
+      <c r="A7" s="30"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1406,36 +1466,36 @@
       <c r="D7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="R7" s="21"/>
+      <c r="S7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA7" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="U7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="27"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>103</v>
       </c>
@@ -1446,7 +1506,7 @@
       <c r="E8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1459,19 +1519,29 @@
       <c r="J8" t="s">
         <v>113</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>163</v>
+      <c r="R8" s="13"/>
+      <c r="S8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="U8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="27"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="30"/>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1552,7 @@
       <c r="E9" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1495,19 +1565,19 @@
       <c r="J9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="27"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="30"/>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1590,7 @@
       <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="9" t="s">
         <v>109</v>
       </c>
@@ -1530,84 +1600,97 @@
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="R10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="29"/>
+      <c r="T10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="C11" s="11"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="R11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="U11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="C11" s="11"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22" t="s">
+    <row r="12" spans="1:28">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="1"/>
+      <c r="F12" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="L12" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O11" t="s">
+      <c r="U12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="1"/>
-      <c r="F12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:28">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13">
-        <v>100</v>
+      <c r="L13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>97</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1633,18 +1716,30 @@
       <c r="J14" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14">
-        <v>50</v>
+      <c r="L14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
@@ -1667,21 +1762,33 @@
         <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="P15" t="s">
+        <v>159</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="S15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15">
+        <v>50</v>
+      </c>
+      <c r="U15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="30"/>
       <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
@@ -1701,11 +1808,33 @@
         <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="27"/>
+        <v>146</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="U16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="30"/>
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
@@ -1728,21 +1857,23 @@
         <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="12" t="s">
-        <v>96</v>
+        <v>147</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="30"/>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1762,23 +1893,33 @@
         <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="29"/>
+      <c r="T18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="30"/>
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
@@ -1798,18 +1939,35 @@
         <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22" t="s">
-        <v>124</v>
+        <v>149</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>99</v>
+      </c>
+      <c r="V19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1829,21 +1987,30 @@
         <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>150</v>
+      </c>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="30"/>
       <c r="B21" s="9" t="s">
         <v>103</v>
       </c>
@@ -1860,19 +2027,25 @@
       <c r="G21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="O21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="27"/>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21">
+        <v>100</v>
+      </c>
+      <c r="U21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="30"/>
       <c r="B22" s="9" t="s">
         <v>90</v>
       </c>
@@ -1884,27 +2057,39 @@
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
+        <v>151</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="18"/>
+      <c r="S22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
@@ -1919,41 +2104,71 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="11">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="25"/>
+      <c r="M23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="11">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="18"/>
+      <c r="S23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T23">
+        <v>50</v>
+      </c>
+      <c r="U23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="F24" s="21"/>
+      <c r="G24" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="11">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="23" t="s">
+      <c r="H24" s="11">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" s="11">
+        <v>100</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" s="18"/>
+      <c r="S24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="T24" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="U24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
-      <c r="F24" s="22"/>
-      <c r="G24" s="9" t="s">
+    <row r="25" spans="1:27">
+      <c r="F25" s="21"/>
+      <c r="G25" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="H24" s="11">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="F25" s="22"/>
-      <c r="G25" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="11">
         <v>50</v>
@@ -1961,22 +2176,22 @@
       <c r="I25" t="s">
         <v>98</v>
       </c>
-      <c r="L25" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="12" t="s">
-        <v>96</v>
+      <c r="L25" s="21"/>
+      <c r="M25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N25" s="11">
+        <v>50</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="12" t="s">
         <v>96</v>
       </c>
@@ -1993,20 +2208,28 @@
       <c r="I26" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>130</v>
+      <c r="L26" s="25"/>
+      <c r="M26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="11">
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
-      </c>
-      <c r="P26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>98</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="S26" s="29"/>
+      <c r="T26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2021,24 +2244,33 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="27"/>
+        <v>115</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U27" t="s">
+        <v>99</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
@@ -2048,26 +2280,33 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28">
-        <v>100</v>
+      <c r="L28" s="21"/>
+      <c r="M28" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="O28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="R28" s="18"/>
+      <c r="S28" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
         <v>21</v>
       </c>
@@ -2087,19 +2326,29 @@
       <c r="I29" t="s">
         <v>98</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="N29" s="11">
+        <v>200</v>
       </c>
       <c r="O29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="27"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T29">
+        <v>100</v>
+      </c>
+      <c r="U29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
         <v>74</v>
       </c>
@@ -2119,9 +2368,29 @@
       <c r="I30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="27"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="18"/>
+      <c r="S30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T30">
+        <v>50</v>
+      </c>
+      <c r="U30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="30"/>
       <c r="B31" s="9" t="s">
         <v>103</v>
       </c>
@@ -2144,29 +2413,22 @@
       <c r="J31" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="12" t="s">
-        <v>96</v>
+      <c r="L31" s="25"/>
+      <c r="M31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="S31" s="26"/>
-      <c r="T31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="U31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="27"/>
+        <v>98</v>
+      </c>
+      <c r="P31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="30"/>
       <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
@@ -2183,33 +2445,39 @@
       <c r="I32" t="s">
         <v>98</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>137</v>
+      <c r="L32" s="25"/>
+      <c r="M32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P32" t="s">
-        <v>102</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="S32" s="29"/>
+      <c r="T32" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="U32" t="s">
-        <v>143</v>
-      </c>
-      <c r="V32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="X32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="30"/>
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
@@ -2220,7 +2488,7 @@
         <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="9" t="s">
@@ -2232,30 +2500,42 @@
       <c r="I33" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="24" t="s">
+      <c r="L33" s="25"/>
+      <c r="M33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U33" t="s">
+        <v>99</v>
+      </c>
+      <c r="V33" t="s">
+        <v>102</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="O33" t="s">
-        <v>99</v>
-      </c>
-      <c r="P33" t="s">
-        <v>144</v>
-      </c>
-      <c r="R33" s="18"/>
-      <c r="S33" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="T33">
-        <v>100</v>
-      </c>
-      <c r="U33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="AA33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="F34" s="18"/>
       <c r="G34" s="9" t="s">
         <v>35</v>
@@ -2263,27 +2543,37 @@
       <c r="I34" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="25"/>
+      <c r="M34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="R34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" t="s">
-        <v>145</v>
-      </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="9" t="s">
-        <v>134</v>
+      <c r="S34" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="U34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" t="s">
+        <v>143</v>
+      </c>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z34">
+        <v>100</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="F35" s="18"/>
       <c r="G35" s="9" t="s">
         <v>129</v>
@@ -2295,27 +2585,42 @@
         <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
-      </c>
-      <c r="L35" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="L35" s="25"/>
       <c r="M35" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="T35">
-        <v>200</v>
+        <v>98</v>
+      </c>
+      <c r="P35" t="s">
+        <v>157</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="U35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>99</v>
+      </c>
+      <c r="V35" t="s">
+        <v>144</v>
+      </c>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="C36" s="10"/>
       <c r="F36" s="18"/>
       <c r="G36" s="9" t="s">
@@ -2327,15 +2632,35 @@
       <c r="I36" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="9" t="s">
-        <v>139</v>
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="R36" s="18"/>
+      <c r="S36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" t="s">
+        <v>115</v>
+      </c>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z36">
+        <v>200</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="C37" s="17"/>
       <c r="F37" s="18"/>
       <c r="G37" s="9" t="s">
@@ -2347,15 +2672,25 @@
       <c r="I37" t="s">
         <v>98</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="9" t="s">
-        <v>140</v>
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="R37" s="18"/>
+      <c r="S37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="U37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="C38" s="17"/>
       <c r="F38" s="18"/>
       <c r="G38" s="9" t="s">
@@ -2368,17 +2703,30 @@
         <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
-      </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22" t="s">
-        <v>141</v>
+        <v>214</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="M38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="11">
+        <v>50</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="P38" t="s">
+        <v>160</v>
+      </c>
+      <c r="R38" s="18"/>
+      <c r="S38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="C39" s="16"/>
       <c r="F39" s="18"/>
       <c r="G39" s="9" t="s">
@@ -2387,119 +2735,146 @@
       <c r="I39" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N39">
-        <v>100</v>
+      <c r="L39" s="25"/>
+      <c r="M39" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
-      </c>
-      <c r="P39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>104</v>
+      </c>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="U39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="C40" s="17"/>
       <c r="F40" s="18"/>
       <c r="G40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L40" s="25"/>
+      <c r="M40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I40" t="s">
+      <c r="O40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="R40" s="21"/>
+      <c r="S40" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="T40">
+        <v>100</v>
+      </c>
+      <c r="U40" t="s">
+        <v>98</v>
+      </c>
+      <c r="V40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="C41" s="12"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="9" t="s">
+      <c r="L41" s="25"/>
+      <c r="M41" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H41">
-        <v>100</v>
-      </c>
-      <c r="I41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" t="s">
-        <v>159</v>
-      </c>
-      <c r="L41" s="26" t="s">
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="C42" s="12"/>
+      <c r="R42" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="S42" s="29"/>
+      <c r="T42" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="C43" s="12"/>
+      <c r="R43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="C42" s="12"/>
-      <c r="L42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="U43" t="s">
+        <v>99</v>
+      </c>
+      <c r="V43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="C44" s="12"/>
+      <c r="R44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" t="s">
+        <v>99</v>
+      </c>
+      <c r="V44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="C45" s="12"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="O42" t="s">
-        <v>99</v>
-      </c>
-      <c r="P42" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="C43" s="12"/>
-      <c r="L43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" t="s">
-        <v>99</v>
-      </c>
-      <c r="P43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="C44" s="12"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="N44">
+      <c r="T45">
         <v>200</v>
       </c>
-      <c r="O44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="C45" s="12"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="22" t="s">
+      <c r="U45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="C46" s="12"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="N45">
-        <v>100</v>
-      </c>
-      <c r="O45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="T46">
+        <v>100</v>
+      </c>
+      <c r="U46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:28">
       <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:16">
@@ -2510,10 +2885,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="C51" s="12"/>
-      <c r="L51" s="26" t="s">
+      <c r="L51" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="26"/>
+      <c r="M51" s="29"/>
       <c r="N51" s="12" t="s">
         <v>96</v>
       </c>
@@ -2522,20 +2897,20 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="26"/>
+      <c r="A52" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="29"/>
       <c r="C52" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G52" s="26"/>
+      <c r="F52" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="29"/>
       <c r="H52" s="12" t="s">
         <v>96</v>
       </c>
@@ -2552,7 +2927,7 @@
         <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -2591,7 +2966,7 @@
         <v>99</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2606,7 +2981,7 @@
         <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>12</v>
@@ -2618,7 +2993,7 @@
         <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>12</v>
@@ -2630,7 +3005,7 @@
         <v>99</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2645,9 +3020,9 @@
         <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="31"/>
+        <v>171</v>
+      </c>
+      <c r="F55" s="27"/>
       <c r="G55" s="9" t="s">
         <v>65</v>
       </c>
@@ -2664,7 +3039,7 @@
         <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -2679,14 +3054,14 @@
         <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="31"/>
+        <v>172</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>163</v>
+      <c r="H56" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="I56" t="s">
         <v>126</v>
@@ -2702,11 +3077,11 @@
         <v>98</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="27"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="9" t="s">
         <v>19</v>
       </c>
@@ -2717,9 +3092,9 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="F57" s="28"/>
       <c r="G57" s="12"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -2734,11 +3109,11 @@
         <v>98</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="27"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="9" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +3124,7 @@
         <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="9" t="s">
@@ -2762,11 +3137,11 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="27"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="9" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +3152,7 @@
         <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L59" s="13"/>
       <c r="M59" s="9" t="s">
@@ -2790,16 +3165,16 @@
         <v>98</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="27"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>163</v>
+      <c r="C60" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D60" t="s">
         <v>126</v>
@@ -2815,16 +3190,16 @@
         <v>98</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="27"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>163</v>
+      <c r="C61" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
@@ -2840,11 +3215,11 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="27"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="9" t="s">
         <v>38</v>
       </c>
@@ -2855,7 +3230,7 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L62" s="13"/>
       <c r="M62" s="9" t="s">
@@ -2866,7 +3241,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="27"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
@@ -2884,16 +3259,16 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="27"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>163</v>
+      <c r="C64" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -2906,8 +3281,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="27"/>
+    <row r="65" spans="1:22">
+      <c r="A65" s="30"/>
       <c r="B65" s="9" t="s">
         <v>62</v>
       </c>
@@ -2918,7 +3293,7 @@
         <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L65" s="13"/>
       <c r="M65" s="9" t="s">
@@ -2928,45 +3303,51 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="27"/>
+    <row r="66" spans="1:22">
+      <c r="A66" s="30"/>
       <c r="B66" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>163</v>
+      <c r="C66" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D66" t="s">
         <v>126</v>
       </c>
       <c r="S66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="27"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="30"/>
       <c r="B67" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D67" t="s">
         <v>104</v>
       </c>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="M67" s="26"/>
+      <c r="M67" s="29"/>
       <c r="N67" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O67" t="s">
         <v>97</v>
       </c>
-      <c r="R67" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="S67" s="26"/>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="R67" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="S67" s="29"/>
+      <c r="T67" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="L68" s="6" t="s">
         <v>1</v>
       </c>
@@ -2977,18 +3358,18 @@
         <v>99</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>1</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
       <c r="L69" s="6" t="s">
         <v>12</v>
       </c>
@@ -2999,20 +3380,20 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="26"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="12" t="s">
         <v>96</v>
       </c>
@@ -3029,16 +3410,16 @@
         <v>99</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="4" t="s">
         <v>1</v>
       </c>
@@ -3061,7 +3442,7 @@
         <v>99</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R71" s="6" t="s">
         <v>12</v>
@@ -3070,10 +3451,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
-      <c r="A72" s="22"/>
-      <c r="B72" s="30" t="s">
-        <v>167</v>
+    <row r="72" spans="1:22">
+      <c r="A72" s="21"/>
+      <c r="B72" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="D72" t="s">
         <v>128</v>
@@ -3088,7 +3469,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R72" s="6" t="s">
         <v>12</v>
@@ -3097,9 +3478,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:22">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C73">
@@ -3119,15 +3500,15 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
-      </c>
-      <c r="R73" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="R73" s="19"/>
       <c r="S73" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="20"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="19"/>
       <c r="B74" s="9" t="s">
         <v>69</v>
       </c>
@@ -3148,15 +3529,15 @@
         <v>98</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
-      </c>
-      <c r="R74" s="20"/>
-      <c r="S74" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
-      <c r="A75" s="20"/>
+        <v>184</v>
+      </c>
+      <c r="R74" s="8"/>
+      <c r="S74" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="19"/>
       <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
@@ -3177,15 +3558,18 @@
         <v>98</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
-      </c>
-      <c r="R75" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="R75" s="8"/>
       <c r="S75" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
-      <c r="A76" s="20"/>
+        <v>196</v>
+      </c>
+      <c r="V75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="19"/>
       <c r="B76" s="9" t="s">
         <v>71</v>
       </c>
@@ -3206,15 +3590,15 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
-      </c>
-      <c r="R76" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="R76" s="25"/>
       <c r="S76" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="20"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="19"/>
       <c r="B77" s="9" t="s">
         <v>38</v>
       </c>
@@ -3225,7 +3609,7 @@
         <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="9" t="s">
@@ -3238,17 +3622,20 @@
         <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
-      </c>
-      <c r="R77" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="R77" s="19"/>
       <c r="S77" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="A78" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="V77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
@@ -3264,15 +3651,15 @@
         <v>98</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
-      </c>
-      <c r="R78" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="R78" s="19"/>
       <c r="S78" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="20"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
         <v>90</v>
       </c>
@@ -3281,17 +3668,20 @@
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="9" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="O79" t="s">
         <v>99</v>
       </c>
-      <c r="R79" s="20"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>195</v>
+      </c>
+      <c r="V79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="L80" s="13"/>
       <c r="M80" s="9" t="s">
         <v>38</v>
@@ -3303,14 +3693,17 @@
         <v>98</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
-      </c>
-      <c r="R80" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="R80" s="25"/>
       <c r="S80" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19">
+        <v>198</v>
+      </c>
+      <c r="V80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20">
       <c r="L81" s="13"/>
       <c r="M81" s="9" t="s">
         <v>89</v>
@@ -3319,47 +3712,114 @@
         <v>104</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
-      </c>
-      <c r="R81" s="20"/>
+        <v>186</v>
+      </c>
+      <c r="R81" s="19"/>
       <c r="S81" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20">
       <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="2:19">
+      <c r="R82" s="25"/>
+      <c r="S82" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20">
       <c r="B83" s="11"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20">
+      <c r="R84" s="8"/>
+      <c r="S84" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20">
+      <c r="R85" s="8"/>
+      <c r="S85" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20">
+      <c r="R87" t="s">
+        <v>202</v>
+      </c>
+      <c r="S87" t="s">
+        <v>204</v>
+      </c>
+      <c r="T87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20">
+      <c r="R88" t="s">
+        <v>81</v>
+      </c>
+      <c r="S88" t="s">
+        <v>205</v>
+      </c>
+      <c r="T88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20">
+      <c r="R89" t="s">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s">
+        <v>206</v>
+      </c>
+      <c r="T89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20">
+      <c r="R90" t="s">
+        <v>203</v>
+      </c>
+      <c r="S90" t="s">
+        <v>207</v>
+      </c>
+      <c r="T90" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="L67:M67"/>
+  <mergeCells count="29">
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="R31:S31"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="L67:M67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ilagan-System-Database-Design.xlsx
+++ b/Ilagan-System-Database-Design.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="220">
   <si>
     <t>Users</t>
   </si>
@@ -346,9 +351,6 @@
   </si>
   <si>
     <t>staton/ pc name</t>
-  </si>
-  <si>
-    <t>Current Service Request</t>
   </si>
   <si>
     <t>minimum 1char</t>
@@ -406,9 +408,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>from user table getting the names</t>
-  </si>
-  <si>
     <t>SongName</t>
   </si>
   <si>
@@ -704,12 +703,30 @@
   </si>
   <si>
     <t>ItemID</t>
+  </si>
+  <si>
+    <t>from user table getting the names full name?</t>
+  </si>
+  <si>
+    <t>omgoing Service Request</t>
+  </si>
+  <si>
+    <t>remove the file name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separate the downpayment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malaman kung ilan beses nag bayad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">separate the returned equipments </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -871,7 +888,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -880,10 +901,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,9 +993,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,6 +1028,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1185,11 +1204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,10 +1236,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="12" t="s">
         <v>96</v>
       </c>
@@ -1228,10 +1247,10 @@
         <v>97</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="12" t="s">
         <v>96</v>
       </c>
@@ -1267,20 +1286,20 @@
       <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="29"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="U2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="29"/>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="12" t="s">
         <v>96</v>
       </c>
@@ -1288,8 +1307,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:28">
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -1337,7 +1356,7 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1350,19 +1369,19 @@
       <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>12</v>
@@ -1374,11 +1393,11 @@
         <v>99</v>
       </c>
       <c r="AB4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1388,36 +1407,39 @@
       <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
       <c r="U5" t="s">
         <v>98</v>
+      </c>
+      <c r="V5" t="s">
+        <v>216</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="Z5" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1427,12 +1449,12 @@
       <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="8" t="s">
@@ -1449,14 +1471,14 @@
         <v>51</v>
       </c>
       <c r="Z6" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1466,16 +1488,16 @@
       <c r="D7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T7">
         <v>50</v>
@@ -1488,14 +1510,14 @@
         <v>52</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
         <v>103</v>
       </c>
@@ -1506,7 +1528,7 @@
       <c r="E8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1517,31 +1539,31 @@
         <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X8" s="25"/>
       <c r="Y8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1574,7 @@
       <c r="E9" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1563,21 +1585,21 @@
         <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X9" s="25"/>
       <c r="Y9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1612,7 @@
       <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="9" t="s">
         <v>109</v>
       </c>
@@ -1600,10 +1622,10 @@
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="29"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="12" t="s">
         <v>96</v>
       </c>
@@ -1613,8 +1635,8 @@
     </row>
     <row r="11" spans="1:28">
       <c r="C11" s="11"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
       <c r="R11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1629,50 +1651,50 @@
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1"/>
-      <c r="F12" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="L12" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="32"/>
+      <c r="F12" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="L12" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="31"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="29"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="12" t="s">
         <v>96</v>
       </c>
@@ -1681,7 +1703,7 @@
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T13">
         <v>100</v>
@@ -1762,7 +1784,7 @@
         <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>12</v>
@@ -1774,11 +1796,11 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R15" s="18"/>
       <c r="S15" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T15">
         <v>50</v>
@@ -1788,7 +1810,7 @@
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="30"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1830,7 @@
         <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>12</v>
@@ -1820,32 +1842,32 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21" t="s">
         <v>44</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="30"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>12</v>
@@ -1857,7 +1879,7 @@
         <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>12</v>
@@ -1869,11 +1891,11 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="30"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1915,7 @@
         <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>12</v>
@@ -1905,12 +1927,12 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
-      </c>
-      <c r="R18" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="R18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="12" t="s">
         <v>96</v>
       </c>
@@ -1919,7 +1941,7 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="30"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
@@ -1939,7 +1961,7 @@
         <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>12</v>
@@ -1951,7 +1973,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>1</v>
@@ -1967,12 +1989,12 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="30"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
@@ -1981,36 +2003,36 @@
         <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9" t="s">
         <v>103</v>
       </c>
@@ -2025,17 +2047,17 @@
         <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T21">
         <v>100</v>
@@ -2045,7 +2067,7 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="9" t="s">
         <v>90</v>
       </c>
@@ -2057,25 +2079,25 @@
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s">
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R22" s="18"/>
       <c r="S22" s="22" t="s">
@@ -2089,7 +2111,7 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
@@ -2100,11 +2122,11 @@
         <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" s="11">
         <v>100</v>
@@ -2114,7 +2136,7 @@
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N23" s="11">
         <v>100</v>
@@ -2124,7 +2146,7 @@
       </c>
       <c r="R23" s="18"/>
       <c r="S23" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T23">
         <v>50</v>
@@ -2136,7 +2158,7 @@
     <row r="24" spans="1:27">
       <c r="F24" s="21"/>
       <c r="G24" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="11">
         <v>100</v>
@@ -2146,7 +2168,7 @@
       </c>
       <c r="L24" s="21"/>
       <c r="M24" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N24" s="11">
         <v>100</v>
@@ -2159,16 +2181,16 @@
         <v>42</v>
       </c>
       <c r="T24" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="F25" s="21"/>
       <c r="G25" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H25" s="11">
         <v>50</v>
@@ -2178,7 +2200,7 @@
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N25" s="11">
         <v>50</v>
@@ -2188,10 +2210,10 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="12" t="s">
         <v>96</v>
       </c>
@@ -2218,10 +2240,10 @@
       <c r="O26" t="s">
         <v>98</v>
       </c>
-      <c r="R26" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="S26" s="29"/>
+      <c r="R26" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S26" s="30"/>
       <c r="T26" s="12" t="s">
         <v>96</v>
       </c>
@@ -2244,23 +2266,23 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U27" t="s">
         <v>99</v>
@@ -2270,7 +2292,7 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="30"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
@@ -2282,21 +2304,21 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R28" s="18"/>
       <c r="S28" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T28">
         <v>100</v>
@@ -2306,7 +2328,7 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="30"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="9" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2360,7 @@
       </c>
       <c r="R29" s="18"/>
       <c r="S29" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T29">
         <v>100</v>
@@ -2348,7 +2370,7 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="30"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="9" t="s">
         <v>74</v>
       </c>
@@ -2380,7 +2402,7 @@
       </c>
       <c r="R30" s="18"/>
       <c r="S30" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T30">
         <v>50</v>
@@ -2390,7 +2412,7 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="9" t="s">
         <v>103</v>
       </c>
@@ -2411,7 +2433,7 @@
         <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="9" t="s">
@@ -2424,16 +2446,16 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="30"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="9" t="s">
@@ -2455,20 +2477,20 @@
       <c r="O32" t="s">
         <v>98</v>
       </c>
-      <c r="R32" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="S32" s="29"/>
+      <c r="R32" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="S32" s="30"/>
       <c r="T32" s="12" t="s">
         <v>96</v>
       </c>
       <c r="U32" t="s">
         <v>97</v>
       </c>
-      <c r="X32" s="29" t="s">
+      <c r="X32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y32" s="29"/>
+      <c r="Y32" s="30"/>
       <c r="Z32" s="12" t="s">
         <v>96</v>
       </c>
@@ -2477,7 +2499,7 @@
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="30"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
@@ -2488,7 +2510,7 @@
         <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="9" t="s">
@@ -2514,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U33" t="s">
         <v>99</v>
@@ -2526,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA33" t="s">
         <v>99</v>
@@ -2554,17 +2576,17 @@
         <v>12</v>
       </c>
       <c r="S34" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U34" t="s">
         <v>99</v>
       </c>
       <c r="V34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X34" s="25"/>
       <c r="Y34" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Z34">
         <v>100</v>
@@ -2576,7 +2598,7 @@
     <row r="35" spans="1:28">
       <c r="F35" s="18"/>
       <c r="G35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -2585,11 +2607,11 @@
         <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2598,7 +2620,7 @@
         <v>98</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>12</v>
@@ -2610,11 +2632,11 @@
         <v>99</v>
       </c>
       <c r="V35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X35" s="25"/>
       <c r="Y35" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA35" t="s">
         <v>99</v>
@@ -2644,14 +2666,14 @@
       </c>
       <c r="R36" s="18"/>
       <c r="S36" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X36" s="25"/>
       <c r="Y36" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z36">
         <v>200</v>
@@ -2684,10 +2706,10 @@
       </c>
       <c r="R37" s="18"/>
       <c r="S37" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -2703,7 +2725,7 @@
         <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="9" t="s">
@@ -2716,14 +2738,14 @@
         <v>98</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R38" s="18"/>
       <c r="S38" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -2744,10 +2766,10 @@
       </c>
       <c r="R39" s="21"/>
       <c r="S39" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -2763,7 +2785,7 @@
         <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="9" t="s">
@@ -2774,7 +2796,7 @@
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T40">
         <v>100</v>
@@ -2783,7 +2805,7 @@
         <v>98</v>
       </c>
       <c r="V40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -2799,15 +2821,15 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:28">
       <c r="C42" s="12"/>
-      <c r="R42" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="S42" s="29"/>
+      <c r="R42" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="S42" s="30"/>
       <c r="T42" s="12" t="s">
         <v>96</v>
       </c>
@@ -2821,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U43" t="s">
         <v>99</v>
       </c>
       <c r="V43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -2842,14 +2864,14 @@
         <v>99</v>
       </c>
       <c r="V44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:28">
       <c r="C45" s="12"/>
       <c r="R45" s="19"/>
       <c r="S45" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T45">
         <v>200</v>
@@ -2885,10 +2907,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="C51" s="12"/>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="M51" s="29"/>
+      <c r="M51" s="30"/>
       <c r="N51" s="12" t="s">
         <v>96</v>
       </c>
@@ -2897,20 +2919,20 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="29"/>
+      <c r="A52" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="30"/>
       <c r="C52" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" s="29"/>
+      <c r="F52" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="30"/>
       <c r="H52" s="12" t="s">
         <v>96</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -2966,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2981,7 +3003,7 @@
         <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>12</v>
@@ -2993,7 +3015,7 @@
         <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>12</v>
@@ -3005,7 +3027,7 @@
         <v>99</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3020,7 +3042,7 @@
         <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="9" t="s">
@@ -3039,7 +3061,7 @@
         <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3054,17 +3076,17 @@
         <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L56" s="13"/>
       <c r="M56" s="9" t="s">
@@ -3077,11 +3099,11 @@
         <v>98</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="30"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="9" t="s">
         <v>19</v>
       </c>
@@ -3092,7 +3114,7 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="12"/>
@@ -3109,11 +3131,11 @@
         <v>98</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="30"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="9" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="9" t="s">
@@ -3137,11 +3159,11 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="30"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="9" t="s">
         <v>21</v>
       </c>
@@ -3152,7 +3174,7 @@
         <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L59" s="13"/>
       <c r="M59" s="9" t="s">
@@ -3165,19 +3187,19 @@
         <v>98</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="30"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L60" s="13"/>
       <c r="M60" s="9" t="s">
@@ -3190,19 +3212,19 @@
         <v>98</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="30"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L61" s="13"/>
       <c r="M61" s="9" t="s">
@@ -3215,11 +3237,11 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="30"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="9" t="s">
         <v>38</v>
       </c>
@@ -3230,7 +3252,7 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L62" s="13"/>
       <c r="M62" s="9" t="s">
@@ -3241,12 +3263,12 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="30"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L63" s="13"/>
       <c r="M63" s="9" t="s">
@@ -3259,19 +3281,22 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="30"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>219</v>
       </c>
       <c r="L64" s="13"/>
       <c r="M64" s="9" t="s">
@@ -3282,7 +3307,7 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="30"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="9" t="s">
         <v>62</v>
       </c>
@@ -3293,7 +3318,10 @@
         <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="F65" t="s">
+        <v>217</v>
       </c>
       <c r="L65" s="13"/>
       <c r="M65" s="9" t="s">
@@ -3304,42 +3332,45 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="30"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>218</v>
       </c>
       <c r="S66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="30"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D67" t="s">
         <v>104</v>
       </c>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="M67" s="29"/>
+      <c r="M67" s="30"/>
       <c r="N67" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O67" t="s">
         <v>97</v>
       </c>
-      <c r="R67" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="S67" s="29"/>
+      <c r="R67" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="S67" s="30"/>
       <c r="T67" s="12" t="s">
         <v>96</v>
       </c>
@@ -3358,13 +3389,13 @@
         <v>99</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>1</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -3380,20 +3411,20 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="12" t="s">
         <v>96</v>
       </c>
@@ -3410,7 +3441,7 @@
         <v>99</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>12</v>
@@ -3442,7 +3473,7 @@
         <v>99</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R71" s="6" t="s">
         <v>12</v>
@@ -3454,10 +3485,10 @@
     <row r="72" spans="1:22">
       <c r="A72" s="21"/>
       <c r="B72" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L72" s="6" t="s">
         <v>12</v>
@@ -3469,7 +3500,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R72" s="6" t="s">
         <v>12</v>
@@ -3481,7 +3512,7 @@
     <row r="73" spans="1:22">
       <c r="A73" s="21"/>
       <c r="B73" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C73">
         <v>100</v>
@@ -3500,7 +3531,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R73" s="19"/>
       <c r="S73" s="9" t="s">
@@ -3529,10 +3560,10 @@
         <v>98</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R74" s="8"/>
-      <c r="S74" s="33" t="s">
+      <c r="S74" s="29" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3558,14 +3589,14 @@
         <v>98</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R75" s="8"/>
       <c r="S75" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -3590,11 +3621,11 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R76" s="25"/>
       <c r="S76" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -3609,7 +3640,7 @@
         <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="9" t="s">
@@ -3622,20 +3653,20 @@
         <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R77" s="19"/>
       <c r="S77" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
@@ -3651,11 +3682,11 @@
         <v>98</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R78" s="19"/>
       <c r="S78" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -3668,17 +3699,17 @@
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O79" t="s">
         <v>99</v>
       </c>
       <c r="R79" s="19"/>
       <c r="S79" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -3693,17 +3724,17 @@
         <v>98</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R80" s="25"/>
       <c r="S80" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="V80" t="s">
         <v>198</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20">
+    </row>
+    <row r="81" spans="2:19">
       <c r="L81" s="13"/>
       <c r="M81" s="9" t="s">
         <v>89</v>
@@ -3712,95 +3743,95 @@
         <v>104</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R81" s="19"/>
       <c r="S81" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82" s="11"/>
       <c r="R82" s="25"/>
       <c r="S82" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" s="11"/>
       <c r="R83" s="8"/>
       <c r="S83" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:19">
       <c r="R84" s="8"/>
       <c r="S84" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:19">
       <c r="R85" s="8"/>
       <c r="S85" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="2:20">
-      <c r="R87" t="s">
+    <row r="103" spans="18:20">
+      <c r="R103" t="s">
+        <v>200</v>
+      </c>
+      <c r="S103" t="s">
         <v>202</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="18:20">
+      <c r="R104" t="s">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s">
+        <v>203</v>
+      </c>
+      <c r="T104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="18:20">
+      <c r="R105" t="s">
+        <v>74</v>
+      </c>
+      <c r="S105" t="s">
         <v>204</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="2:20">
-      <c r="R88" t="s">
-        <v>81</v>
-      </c>
-      <c r="S88" t="s">
+    <row r="106" spans="18:20">
+      <c r="R106" t="s">
+        <v>201</v>
+      </c>
+      <c r="S106" t="s">
         <v>205</v>
       </c>
-      <c r="T88" t="s">
+      <c r="T106" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20">
-      <c r="R89" t="s">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s">
-        <v>206</v>
-      </c>
-      <c r="T89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20">
-      <c r="R90" t="s">
-        <v>203</v>
-      </c>
-      <c r="S90" t="s">
-        <v>207</v>
-      </c>
-      <c r="T90" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="L51:M51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="F52:G52"/>
@@ -3810,16 +3841,16 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A16:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3827,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3839,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
